--- a/public/sample-format/roaming-bundle-excel.xlsx
+++ b/public/sample-format/roaming-bundle-excel.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS233\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS233\Desktop\roaming\roaming_excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0810B-DF85-4143-BE97-C01FD3D21D98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E627A614-4578-4CB2-8A25-38B02C417819}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1B4F22C-ACA8-46A6-8AED-5F9F99F4B40C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
   <si>
     <t>Product Code</t>
   </si>
@@ -66,15 +66,6 @@
     <t>MRP</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>Roaming Hajj Data</t>
   </si>
   <si>
@@ -84,118 +75,175 @@
     <t>Days</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Afghan Wireless Communication</t>
-  </si>
-  <si>
-    <t>Roaming Ramadan Data</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Movicel</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Cable and Wireless</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>OPPROPAID222</t>
-  </si>
-  <si>
-    <t>OPPROPAID223</t>
-  </si>
-  <si>
-    <t>OPPROPAID224</t>
-  </si>
-  <si>
-    <t>OPPROPAID225</t>
-  </si>
-  <si>
-    <t>OPPROPAID226</t>
-  </si>
-  <si>
-    <t>OPPROPAID227</t>
-  </si>
-  <si>
-    <t>OPPROPAID228</t>
-  </si>
-  <si>
-    <t>OPPROPAID229</t>
-  </si>
-  <si>
-    <t>OPPROPAID230</t>
-  </si>
-  <si>
-    <t>OPPROPAID231</t>
-  </si>
-  <si>
-    <t>OPPROPAID232</t>
-  </si>
-  <si>
-    <t>OPPROPAID233</t>
-  </si>
-  <si>
-    <t>OPPROPAID234</t>
-  </si>
-  <si>
-    <t>OPPROPAID235</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>T-Mobile</t>
-  </si>
-  <si>
-    <t>Vodafone Netherlands</t>
-  </si>
-  <si>
     <t>Prepaid</t>
   </si>
   <si>
     <t>Postpaid</t>
   </si>
   <si>
-    <t>Roaming Hajj Data 2</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>3 Plus Internet</t>
-  </si>
-  <si>
-    <t>One World</t>
-  </si>
-  <si>
-    <t>Roaming Hot</t>
-  </si>
-  <si>
-    <t>Roaming Fish</t>
-  </si>
-  <si>
-    <t>Ramadan Data</t>
-  </si>
-  <si>
-    <t>Roaming Greate Offer</t>
-  </si>
-  <si>
-    <t>Best Roaming MRP</t>
+    <t>SMS Volume</t>
+  </si>
+  <si>
+    <t>Minute Volume</t>
+  </si>
+  <si>
+    <t>ROAMUNLDATA1D</t>
+  </si>
+  <si>
+    <t>Daily UL data pack</t>
+  </si>
+  <si>
+    <t>রোমিং আনলিমিটেড ইন্টারনেট-১দিন-৯৯টাকা</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>ROAMPOSTUNLDATA1D</t>
+  </si>
+  <si>
+    <t>ROAMUNLDATA7D</t>
+  </si>
+  <si>
+    <t>Weekly UL data pack</t>
+  </si>
+  <si>
+    <t>রোমিং আনলিমিটেড ইন্টারনেট-৭দিন-৫৯৯টাকা</t>
+  </si>
+  <si>
+    <t>ROAMPOSTUNLDATA7D</t>
+  </si>
+  <si>
+    <t>ROAM1GB30D</t>
+  </si>
+  <si>
+    <t>1 GB - 30 days</t>
+  </si>
+  <si>
+    <t>রোমিং ১জিবি-৩০দিন-৫৩৬৮.৩২টাকা</t>
+  </si>
+  <si>
+    <t>1 GB</t>
+  </si>
+  <si>
+    <t>ROAMPOST1GB30D</t>
+  </si>
+  <si>
+    <t>ROAM500MB15D</t>
+  </si>
+  <si>
+    <t>500 MB - 15 days</t>
+  </si>
+  <si>
+    <t>রোমিং ৫০০এমবি-১৫দিন-২৭৩৭.৭৫টাকা</t>
+  </si>
+  <si>
+    <t>500 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROAMPOST500MB15D</t>
+  </si>
+  <si>
+    <t>ROAM300MB7D</t>
+  </si>
+  <si>
+    <t>300 MB - 7 days</t>
+  </si>
+  <si>
+    <t>রোমিং ৩০০এমবি-৭দিন-১৬৭৭.৬টাকা</t>
+  </si>
+  <si>
+    <t>300 MB</t>
+  </si>
+  <si>
+    <t>ROAMPOST300MB7D</t>
+  </si>
+  <si>
+    <t>ROAM100MB7D</t>
+  </si>
+  <si>
+    <t>100 MB - 7 days</t>
+  </si>
+  <si>
+    <t>রোমিং ১০০এমবি-৭দিন-৫৭০.৮৫টাকা</t>
+  </si>
+  <si>
+    <t>100 MB</t>
+  </si>
+  <si>
+    <t>ROAMOST100MB7D</t>
+  </si>
+  <si>
+    <t>ROAM50MB7D</t>
+  </si>
+  <si>
+    <t>50 MB - 7 days</t>
+  </si>
+  <si>
+    <t>রোমিং ৫০এমবি-৭দিন-২৯১.২৫টাকা</t>
+  </si>
+  <si>
+    <t>50 MB</t>
+  </si>
+  <si>
+    <t>ROAMPOST50MB7D</t>
+  </si>
+  <si>
+    <t>ROAMHAJJDATA</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>হজ রোমিং ১.৫জিবি-৫০দিন-২৫৯৯টাকা</t>
+  </si>
+  <si>
+    <t>ROAMPOSTHAJJDATA</t>
+  </si>
+  <si>
+    <t>ROAMCOMBO1D</t>
+  </si>
+  <si>
+    <t>Daily Combo</t>
+  </si>
+  <si>
+    <t>রোমিং প্ল্যান -  ৯৯৯টাকা</t>
+  </si>
+  <si>
+    <t>ROAMCOMBO7D</t>
+  </si>
+  <si>
+    <t>Weekly Combo</t>
+  </si>
+  <si>
+    <t>রোমিং প্ল্যান -  ৩৪৯৯টাকা</t>
+  </si>
+  <si>
+    <t>ROAMHAJJCOMBO1</t>
+  </si>
+  <si>
+    <t>Hajj Combo 1</t>
+  </si>
+  <si>
+    <t>রোমিং প্ল্যান -  ৬০৯৯টাকা</t>
+  </si>
+  <si>
+    <t>ROAMHAJJCOMBO2</t>
+  </si>
+  <si>
+    <t>Hajj Combo 2</t>
+  </si>
+  <si>
+    <t>রোমিং প্ল্যান -  ২৫৯৯টাকা</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -562,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E65C42-D8FF-4F62-BE66-BB24A21F1D7D}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,9 +625,9 @@
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="8" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -608,142 +656,142 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>2.5</v>
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I2">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L2">
-        <v>28.319167</v>
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
       </c>
       <c r="M2">
-        <v>7.7877709250000002</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L3">
-        <v>28.319167</v>
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7.7877709250000002</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4">
-        <v>2.5</v>
+      <c r="G4" t="s">
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L4">
-        <v>28.319167</v>
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>7.7877709250000002</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -751,40 +799,40 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>3.5</v>
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I5">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L5">
-        <v>28.319167</v>
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>7.7877709250000002</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -792,491 +840,655 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6">
-        <v>4.5</v>
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L6">
-        <v>28.319167</v>
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
       </c>
       <c r="M6">
-        <v>7.7877709250000002</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
       <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7">
-        <v>5.5</v>
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L7">
-        <v>28.319167</v>
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>7.7877709250000002</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8">
-        <v>6.5</v>
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
       </c>
       <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>15</v>
       </c>
-      <c r="I8">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L8">
-        <v>28.319167</v>
+      <c r="L8" t="s">
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>7.7877709250000002</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>7.5</v>
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
       </c>
       <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>15</v>
       </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L9">
-        <v>28.319167</v>
+      <c r="L9" t="s">
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>7.7877709250000002</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>8.5</v>
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L10">
-        <v>28.319167</v>
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>7.7877709250000002</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11">
-        <v>9.5</v>
-      </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I11">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L11">
-        <v>28.319167</v>
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>7.7877709250000002</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12">
-        <v>10.5</v>
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I12">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L12">
-        <v>28.319167</v>
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>7.7877709250000002</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13">
-        <v>11.5</v>
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I13">
-        <v>24</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L13">
-        <v>28.319167</v>
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>7.7877709250000002</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>12.5</v>
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I14">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L14">
-        <v>28.319167</v>
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>7.7877709250000002</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>13.5</v>
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I15">
-        <v>26</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L15">
-        <v>28.319167</v>
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>7.7877709250000002</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G16">
-        <v>14.5</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I16">
-        <v>27</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L16">
-        <v>28.319167</v>
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>7.7877709250000002</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17">
+        <v>1.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>130</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>300</v>
+      </c>
+      <c r="K20">
         <v>50</v>
       </c>
-      <c r="G17">
-        <v>15.5</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17">
-        <v>36.106937930000001</v>
-      </c>
-      <c r="L17">
-        <v>28.319167</v>
-      </c>
-      <c r="M17">
-        <v>7.7877709250000002</v>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21">
+        <v>2599</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample-format/roaming-bundle-excel.xlsx
+++ b/public/sample-format/roaming-bundle-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS233\Desktop\roaming\roaming_excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp2\htdocs\bl_cms\public\sample-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E627A614-4578-4CB2-8A25-38B02C417819}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0424FB6B-D84B-4025-AD22-28B1008581AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1B4F22C-ACA8-46A6-8AED-5F9F99F4B40C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
   <si>
     <t>Product Code</t>
   </si>
@@ -129,9 +129,6 @@
     <t>রোমিং ১জিবি-৩০দিন-৫৩৬৮.৩২টাকা</t>
   </si>
   <si>
-    <t>1 GB</t>
-  </si>
-  <si>
     <t>ROAMPOST1GB30D</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>রোমিং ৫০০এমবি-১৫দিন-২৭৩৭.৭৫টাকা</t>
   </si>
   <si>
-    <t>500 MB</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ROAMPOST500MB15D</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>রোমিং ৩০০এমবি-৭দিন-১৬৭৭.৬টাকা</t>
   </si>
   <si>
-    <t>300 MB</t>
-  </si>
-  <si>
     <t>ROAMPOST300MB7D</t>
   </si>
   <si>
@@ -174,9 +165,6 @@
     <t>রোমিং ১০০এমবি-৭দিন-৫৭০.৮৫টাকা</t>
   </si>
   <si>
-    <t>100 MB</t>
-  </si>
-  <si>
     <t>ROAMOST100MB7D</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t>রোমিং ৫০এমবি-৭দিন-২৯১.২৫টাকা</t>
   </si>
   <si>
-    <t>50 MB</t>
-  </si>
-  <si>
     <t>ROAMPOST50MB7D</t>
   </si>
   <si>
@@ -241,9 +226,6 @@
   </si>
   <si>
     <t>রোমিং প্ল্যান -  ২৫৯৯টাকা</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -613,7 +595,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,9 +675,6 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -734,9 +713,6 @@
       <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -775,9 +751,6 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -816,9 +789,6 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -854,8 +824,8 @@
       <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -878,7 +848,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -895,8 +865,8 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -919,7 +889,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -931,13 +901,13 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
+      <c r="G8">
+        <v>500</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -960,7 +930,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -972,13 +942,13 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
+      <c r="G9">
+        <v>500</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -1001,7 +971,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1013,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -1042,7 +1012,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1054,13 +1024,13 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="G11">
+        <v>300</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -1083,7 +1053,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1095,13 +1065,13 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -1124,7 +1094,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1136,13 +1106,13 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -1165,7 +1135,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1177,13 +1147,13 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14">
         <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -1206,7 +1176,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1218,13 +1188,13 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15">
         <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
@@ -1247,13 +1217,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1262,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G16">
         <v>1.5</v>
@@ -1288,13 +1258,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1303,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G17">
         <v>1.5</v>
@@ -1329,7 +1299,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1341,17 +1311,14 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
       </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
       <c r="I18">
         <v>10</v>
       </c>
@@ -1370,7 +1337,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1382,17 +1349,14 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
       </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
       <c r="I19">
         <v>30</v>
       </c>
@@ -1411,29 +1375,26 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" t="s">
-        <v>23</v>
-      </c>
       <c r="I20">
         <v>100</v>
       </c>
@@ -1452,28 +1413,22 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I21">
         <v>100</v>
